--- a/Mapeamento P1/Mapeamento Apuracao Alocacao/Mapeamento Técnico - APURACAO_ALOCACAO_P1.xlsx
+++ b/Mapeamento P1/Mapeamento Apuracao Alocacao/Mapeamento Técnico - APURACAO_ALOCACAO_P1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="285" windowWidth="14700" windowHeight="5415" activeTab="1"/>
+    <workbookView xWindow="915" yWindow="345" windowWidth="14700" windowHeight="5355" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação" sheetId="15" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Mapeamento" sheetId="8" r:id="rId3"/>
     <sheet name="Regras de Mapeamento" sheetId="9" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="162">
   <si>
     <t>Schema</t>
   </si>
@@ -1057,12 +1057,18 @@
   <si>
     <t>NUMBER</t>
   </si>
+  <si>
+    <t>FLG_RETROATIVIDADE</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1881,6 +1887,26 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1890,15 +1916,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1938,14 +1955,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1953,9 +1967,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1986,9 +1997,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1999,6 +2007,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2034,17 +2051,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2067,7 +2073,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2097,7 +2103,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -2164,7 +2170,7 @@
           <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2212,7 +2218,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2235,14 +2241,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2285,7 +2291,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2308,14 +2314,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2418,6 +2424,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2452,6 +2459,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -2627,7 +2635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2637,7 +2645,7 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="16" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="16" customWidth="1"/>
@@ -2646,7 +2654,7 @@
     <col min="5" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18">
+    <row r="2" spans="2:10" ht="18" x14ac:dyDescent="0.25">
       <c r="C2" s="17" t="s">
         <v>58</v>
       </c>
@@ -2654,7 +2662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15">
+    <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C3" s="17" t="s">
         <v>59</v>
       </c>
@@ -2662,22 +2670,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C4" s="17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C5" s="17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C6" s="17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="13.5" thickBot="1">
+    <row r="7" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="43"/>
       <c r="C7" s="43"/>
       <c r="D7" s="43"/>
@@ -2688,135 +2696,142 @@
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
     </row>
-    <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1"/>
-    <row r="9" spans="2:10">
-      <c r="B9" s="99" t="s">
+    <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="101"/>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="102"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="104"/>
-    </row>
-    <row r="11" spans="2:10" ht="13.5" thickBot="1">
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="106"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="107"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="109"/>
+    </row>
+    <row r="11" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="44" t="s">
         <v>77</v>
       </c>
       <c r="C11" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="105" t="s">
+      <c r="D11" s="110" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105" t="s">
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="106"/>
-    </row>
-    <row r="12" spans="2:10">
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="111"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="30" t="s">
         <v>78</v>
       </c>
       <c r="C12" s="29">
         <v>41238</v>
       </c>
-      <c r="D12" s="107" t="s">
+      <c r="D12" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="108"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="111"/>
-    </row>
-    <row r="13" spans="2:10">
+      <c r="E12" s="113"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="116"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="28"/>
       <c r="C13" s="27"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="98"/>
-    </row>
-    <row r="14" spans="2:10">
+      <c r="D13" s="101"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="100"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="26"/>
       <c r="C14" s="25"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="98"/>
-    </row>
-    <row r="15" spans="2:10">
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="100"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="26"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="97"/>
-      <c r="J15" s="98"/>
-    </row>
-    <row r="16" spans="2:10">
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="100"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="98"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="100"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="113"/>
-      <c r="I17" s="113"/>
-      <c r="J17" s="114"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="97"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="113"/>
-      <c r="J18" s="114"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B9:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="D18:F18"/>
@@ -2827,13 +2842,6 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:J16"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B9:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -2843,17 +2851,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:J25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D8" sqref="D8:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="16" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="16" customWidth="1"/>
@@ -2862,7 +2870,7 @@
     <col min="5" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18">
+    <row r="2" spans="2:10" ht="18" x14ac:dyDescent="0.25">
       <c r="C2" s="17" t="s">
         <v>58</v>
       </c>
@@ -2871,7 +2879,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15">
+    <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C3" s="17" t="s">
         <v>59</v>
       </c>
@@ -2880,7 +2888,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="13.5" thickBot="1">
+    <row r="4" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
       <c r="D4" s="43"/>
@@ -2891,60 +2899,60 @@
       <c r="I4" s="43"/>
       <c r="J4" s="43"/>
     </row>
-    <row r="5" spans="2:10" ht="13.5" thickTop="1"/>
-    <row r="6" spans="2:10">
-      <c r="B6" s="117" t="s">
+    <row r="5" spans="2:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-    </row>
-    <row r="7" spans="2:10">
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="118"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="51" t="s">
         <v>65</v>
       </c>
       <c r="C7" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="117" t="s">
+      <c r="D7" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-    </row>
-    <row r="8" spans="2:10">
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="52"/>
       <c r="C8" s="53"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-    </row>
-    <row r="9" spans="2:10">
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="121"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="52"/>
       <c r="C9" s="53"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="123"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="123"/>
-    </row>
-    <row r="10" spans="2:10" ht="13.5" thickBot="1">
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="126"/>
+    </row>
+    <row r="10" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -2955,20 +2963,20 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="115" t="s">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="116"/>
-    </row>
-    <row r="12" spans="2:10" ht="23.25" customHeight="1">
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="120"/>
+    </row>
+    <row r="12" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="47" t="s">
         <v>65</v>
       </c>
@@ -2978,40 +2986,40 @@
       <c r="D12" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="124" t="s">
+      <c r="E12" s="127" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="126"/>
-      <c r="G12" s="124" t="s">
+      <c r="F12" s="129"/>
+      <c r="G12" s="127" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="125"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="126"/>
-    </row>
-    <row r="13" spans="2:10">
+      <c r="H12" s="128"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="129"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
       <c r="C13" s="9"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="127"/>
-      <c r="J13" s="127"/>
-    </row>
-    <row r="14" spans="2:10">
+      <c r="E13" s="123"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="130"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
       <c r="C14" s="9"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="127"/>
-      <c r="J14" s="127"/>
-    </row>
-    <row r="15" spans="2:10" ht="13.5" thickBot="1">
+      <c r="E14" s="123"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="130"/>
+    </row>
+    <row r="15" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -3022,14 +3030,14 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="2:10" ht="25.5" customHeight="1">
-      <c r="B16" s="115" t="s">
+    <row r="16" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="46" t="s">
         <v>66</v>
       </c>
@@ -3040,17 +3048,17 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="13"/>
       <c r="C18" s="14"/>
       <c r="D18" s="13"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="13"/>
       <c r="C19" s="14"/>
       <c r="D19" s="13"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -3061,20 +3069,20 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B21" s="117" t="s">
+    <row r="21" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="117"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="117"/>
-    </row>
-    <row r="22" spans="2:10" ht="23.25">
+      <c r="C21" s="118"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="118"/>
+    </row>
+    <row r="22" spans="2:10" ht="23.25" x14ac:dyDescent="0.2">
       <c r="B22" s="51" t="s">
         <v>71</v>
       </c>
@@ -3084,59 +3092,52 @@
       <c r="D22" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="119" t="s">
+      <c r="E22" s="122" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="119"/>
-      <c r="G22" s="119" t="s">
+      <c r="F22" s="122"/>
+      <c r="G22" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="H22" s="119"/>
-      <c r="I22" s="119"/>
-      <c r="J22" s="119"/>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="H22" s="122"/>
+      <c r="I22" s="122"/>
+      <c r="J22" s="122"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="12"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="128"/>
-      <c r="F23" s="128"/>
-      <c r="G23" s="128"/>
-      <c r="H23" s="128"/>
-      <c r="I23" s="128"/>
-      <c r="J23" s="128"/>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="117"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="12"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="128"/>
-      <c r="H24" s="128"/>
-      <c r="I24" s="128"/>
-      <c r="J24" s="128"/>
-    </row>
-    <row r="25" spans="2:10">
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="117"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="12"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="128"/>
-      <c r="G25" s="128"/>
-      <c r="H25" s="128"/>
-      <c r="I25" s="128"/>
-      <c r="J25" s="128"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="117"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:J23"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="D8:J8"/>
@@ -3151,6 +3152,13 @@
     <mergeCell ref="G14:J14"/>
     <mergeCell ref="G13:J13"/>
     <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:J23"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3161,20 +3169,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AF104"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="R4" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="Q4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W4" sqref="W4:Z63"/>
+      <selection pane="bottomRight" activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
     <col min="2" max="3" width="11.7109375" style="2" customWidth="1"/>
@@ -3207,52 +3215,52 @@
     <col min="34" max="16384" width="30.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D1" s="81"/>
       <c r="Q1" s="56"/>
       <c r="R1" s="56"/>
       <c r="S1" s="56"/>
       <c r="T1" s="56"/>
     </row>
-    <row r="2" spans="1:29" ht="25.5" customHeight="1">
-      <c r="B2" s="137" t="s">
+    <row r="2" spans="1:29" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="139" t="s">
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="144" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="139"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="135" t="s">
+      <c r="O2" s="144"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="136"/>
-      <c r="S2" s="136"/>
-      <c r="T2" s="136"/>
-      <c r="U2" s="136"/>
-      <c r="V2" s="136"/>
-      <c r="W2" s="136"/>
-      <c r="X2" s="136"/>
-      <c r="Y2" s="136"/>
-      <c r="Z2" s="136"/>
-      <c r="AA2" s="136"/>
-      <c r="AB2" s="136"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="141"/>
+      <c r="T2" s="141"/>
+      <c r="U2" s="141"/>
+      <c r="V2" s="141"/>
+      <c r="W2" s="141"/>
+      <c r="X2" s="141"/>
+      <c r="Y2" s="141"/>
+      <c r="Z2" s="141"/>
+      <c r="AA2" s="141"/>
+      <c r="AB2" s="141"/>
       <c r="AC2" s="40" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="23.25">
+    <row r="3" spans="1:29" ht="23.25" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
@@ -3336,7 +3344,7 @@
       </c>
       <c r="AC3" s="41"/>
     </row>
-    <row r="4" spans="1:29" s="11" customFormat="1" ht="12">
+    <row r="4" spans="1:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="70" t="s">
         <v>97</v>
@@ -3403,7 +3411,7 @@
       <c r="AB4" s="70"/>
       <c r="AC4" s="70"/>
     </row>
-    <row r="5" spans="1:29" s="11" customFormat="1" ht="12">
+    <row r="5" spans="1:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="70" t="s">
         <v>97</v>
@@ -3470,7 +3478,7 @@
       <c r="AB5" s="70"/>
       <c r="AC5" s="70"/>
     </row>
-    <row r="6" spans="1:29" s="10" customFormat="1" ht="12">
+    <row r="6" spans="1:29" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B6" s="70" t="s">
         <v>97</v>
       </c>
@@ -3536,7 +3544,7 @@
       <c r="AB6" s="70"/>
       <c r="AC6" s="70"/>
     </row>
-    <row r="7" spans="1:29" s="15" customFormat="1" ht="11.25" customHeight="1">
+    <row r="7" spans="1:29" s="15" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="70" t="s">
         <v>97</v>
       </c>
@@ -3602,7 +3610,7 @@
       <c r="AB7" s="70"/>
       <c r="AC7" s="70"/>
     </row>
-    <row r="8" spans="1:29" s="11" customFormat="1" ht="12">
+    <row r="8" spans="1:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="70" t="s">
         <v>97</v>
@@ -3669,7 +3677,7 @@
       <c r="AB8" s="70"/>
       <c r="AC8" s="70"/>
     </row>
-    <row r="9" spans="1:29" s="11" customFormat="1" ht="12">
+    <row r="9" spans="1:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="70" t="s">
         <v>97</v>
@@ -3740,7 +3748,7 @@
       <c r="AB9" s="72"/>
       <c r="AC9" s="72"/>
     </row>
-    <row r="10" spans="1:29" s="11" customFormat="1" ht="12">
+    <row r="10" spans="1:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="70" t="s">
         <v>97</v>
@@ -3807,7 +3815,7 @@
       <c r="AB10" s="72"/>
       <c r="AC10" s="72"/>
     </row>
-    <row r="11" spans="1:29" s="11" customFormat="1" ht="12">
+    <row r="11" spans="1:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="70" t="s">
         <v>97</v>
@@ -3874,7 +3882,7 @@
       <c r="AB11" s="72"/>
       <c r="AC11" s="72"/>
     </row>
-    <row r="12" spans="1:29" s="10" customFormat="1" ht="12">
+    <row r="12" spans="1:29" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B12" s="70" t="s">
         <v>97</v>
       </c>
@@ -3940,7 +3948,7 @@
       <c r="AB12" s="72"/>
       <c r="AC12" s="72"/>
     </row>
-    <row r="13" spans="1:29" s="15" customFormat="1" ht="12">
+    <row r="13" spans="1:29" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B13" s="70" t="s">
         <v>97</v>
       </c>
@@ -4006,7 +4014,7 @@
       <c r="AB13" s="72"/>
       <c r="AC13" s="72"/>
     </row>
-    <row r="14" spans="1:29" s="15" customFormat="1" ht="12">
+    <row r="14" spans="1:29" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B14" s="70" t="s">
         <v>97</v>
       </c>
@@ -4072,7 +4080,7 @@
       <c r="AB14" s="72"/>
       <c r="AC14" s="72"/>
     </row>
-    <row r="15" spans="1:29" s="15" customFormat="1" ht="12">
+    <row r="15" spans="1:29" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B15" s="70" t="s">
         <v>97</v>
       </c>
@@ -4142,7 +4150,7 @@
       <c r="AB15" s="72"/>
       <c r="AC15" s="72"/>
     </row>
-    <row r="16" spans="1:29" s="3" customFormat="1" ht="12.75" customHeight="1">
+    <row r="16" spans="1:29" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="65"/>
       <c r="B16" s="70" t="s">
         <v>97</v>
@@ -4209,7 +4217,7 @@
       <c r="AB16" s="70"/>
       <c r="AC16" s="70"/>
     </row>
-    <row r="17" spans="1:29" s="3" customFormat="1" ht="12.75" customHeight="1">
+    <row r="17" spans="1:29" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="65"/>
       <c r="B17" s="70" t="s">
         <v>97</v>
@@ -4272,7 +4280,7 @@
       <c r="AB17" s="70"/>
       <c r="AC17" s="70"/>
     </row>
-    <row r="18" spans="1:29" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="18" spans="1:29" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="65"/>
       <c r="B18" s="70" t="s">
         <v>97</v>
@@ -4335,7 +4343,7 @@
       <c r="AB18" s="70"/>
       <c r="AC18" s="70"/>
     </row>
-    <row r="19" spans="1:29" s="3" customFormat="1" ht="11.25" customHeight="1">
+    <row r="19" spans="1:29" s="3" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="65"/>
       <c r="B19" s="70" t="s">
         <v>97</v>
@@ -4402,7 +4410,7 @@
       <c r="AB19" s="70"/>
       <c r="AC19" s="70"/>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="60"/>
       <c r="B20" s="70" t="s">
         <v>97</v>
@@ -4465,7 +4473,7 @@
       <c r="AB20" s="70"/>
       <c r="AC20" s="70"/>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="60"/>
       <c r="B21" s="70" t="s">
         <v>97</v>
@@ -4528,7 +4536,7 @@
       <c r="AB21" s="70"/>
       <c r="AC21" s="70"/>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="60"/>
       <c r="B22" s="70" t="s">
         <v>97</v>
@@ -4599,7 +4607,7 @@
       <c r="AB22" s="70"/>
       <c r="AC22" s="70"/>
     </row>
-    <row r="23" spans="1:29">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" s="60"/>
       <c r="B23" s="70" t="s">
         <v>97</v>
@@ -4666,7 +4674,7 @@
       <c r="AB23" s="70"/>
       <c r="AC23" s="70"/>
     </row>
-    <row r="24" spans="1:29">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" s="60"/>
       <c r="B24" s="70" t="s">
         <v>97</v>
@@ -4737,7 +4745,7 @@
       <c r="AB24" s="70"/>
       <c r="AC24" s="70"/>
     </row>
-    <row r="25" spans="1:29">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" s="60"/>
       <c r="B25" s="70" t="s">
         <v>97</v>
@@ -4804,7 +4812,7 @@
       <c r="AB25" s="70"/>
       <c r="AC25" s="70"/>
     </row>
-    <row r="26" spans="1:29" ht="12" customHeight="1">
+    <row r="26" spans="1:29" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="60"/>
       <c r="B26" s="70" t="s">
         <v>97</v>
@@ -4871,7 +4879,7 @@
       <c r="AB26" s="70"/>
       <c r="AC26" s="70"/>
     </row>
-    <row r="27" spans="1:29">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" s="60"/>
       <c r="B27" s="70" t="s">
         <v>97</v>
@@ -4938,7 +4946,7 @@
       <c r="AB27" s="70"/>
       <c r="AC27" s="70"/>
     </row>
-    <row r="28" spans="1:29">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" s="60"/>
       <c r="B28" s="70" t="s">
         <v>97</v>
@@ -5005,7 +5013,7 @@
       <c r="AB28" s="70"/>
       <c r="AC28" s="70"/>
     </row>
-    <row r="29" spans="1:29">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" s="60"/>
       <c r="B29" s="70" t="s">
         <v>97</v>
@@ -5072,7 +5080,7 @@
       <c r="AB29" s="70"/>
       <c r="AC29" s="70"/>
     </row>
-    <row r="30" spans="1:29">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" s="60"/>
       <c r="B30" s="70" t="s">
         <v>97</v>
@@ -5139,7 +5147,7 @@
       <c r="AB30" s="70"/>
       <c r="AC30" s="70"/>
     </row>
-    <row r="31" spans="1:29">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" s="60"/>
       <c r="B31" s="70" t="s">
         <v>97</v>
@@ -5210,7 +5218,7 @@
       <c r="AB31" s="70"/>
       <c r="AC31" s="70"/>
     </row>
-    <row r="32" spans="1:29">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" s="60"/>
       <c r="B32" s="70" t="s">
         <v>97</v>
@@ -5277,7 +5285,7 @@
       <c r="AB32" s="70"/>
       <c r="AC32" s="70"/>
     </row>
-    <row r="33" spans="1:29">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33" s="60"/>
       <c r="B33" s="70" t="s">
         <v>97</v>
@@ -5340,7 +5348,7 @@
       <c r="AB33" s="70"/>
       <c r="AC33" s="70"/>
     </row>
-    <row r="34" spans="1:29">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" s="60"/>
       <c r="B34" s="70" t="s">
         <v>97</v>
@@ -5403,7 +5411,7 @@
       <c r="AB34" s="70"/>
       <c r="AC34" s="70"/>
     </row>
-    <row r="35" spans="1:29">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A35" s="60"/>
       <c r="B35" s="70" t="s">
         <v>97</v>
@@ -5466,7 +5474,7 @@
       <c r="AB35" s="70"/>
       <c r="AC35" s="70"/>
     </row>
-    <row r="36" spans="1:29">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" s="60"/>
       <c r="B36" s="70" t="s">
         <v>97</v>
@@ -5499,7 +5507,7 @@
       <c r="L36" s="72">
         <v>2</v>
       </c>
-      <c r="M36" s="147"/>
+      <c r="M36" s="93"/>
       <c r="N36" s="70" t="s">
         <v>100</v>
       </c>
@@ -5537,7 +5545,7 @@
       <c r="AB36" s="70"/>
       <c r="AC36" s="70"/>
     </row>
-    <row r="37" spans="1:29">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" s="60"/>
       <c r="B37" s="90"/>
       <c r="C37" s="90"/>
@@ -5594,7 +5602,7 @@
       <c r="AB37" s="70"/>
       <c r="AC37" s="70"/>
     </row>
-    <row r="38" spans="1:29">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" s="60"/>
       <c r="B38" s="70" t="s">
         <v>97</v>
@@ -5665,7 +5673,7 @@
       <c r="AB38" s="70"/>
       <c r="AC38" s="70"/>
     </row>
-    <row r="39" spans="1:29">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" s="60"/>
       <c r="B39" s="70" t="s">
         <v>97</v>
@@ -5732,7 +5740,7 @@
       <c r="AB39" s="70"/>
       <c r="AC39" s="70"/>
     </row>
-    <row r="40" spans="1:29">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A40" s="60"/>
       <c r="B40" s="70" t="s">
         <v>97</v>
@@ -5799,7 +5807,7 @@
       <c r="AB40" s="70"/>
       <c r="AC40" s="70"/>
     </row>
-    <row r="41" spans="1:29">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A41" s="60"/>
       <c r="B41" s="70" t="s">
         <v>97</v>
@@ -5862,7 +5870,7 @@
       <c r="AB41" s="70"/>
       <c r="AC41" s="70"/>
     </row>
-    <row r="42" spans="1:29">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42" s="60"/>
       <c r="B42" s="70" t="s">
         <v>97</v>
@@ -5925,7 +5933,7 @@
       <c r="AB42" s="70"/>
       <c r="AC42" s="70"/>
     </row>
-    <row r="43" spans="1:29">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43" s="60"/>
       <c r="B43" s="70" t="s">
         <v>97</v>
@@ -5992,7 +6000,7 @@
       <c r="AB43" s="70"/>
       <c r="AC43" s="70"/>
     </row>
-    <row r="44" spans="1:29">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A44" s="60"/>
       <c r="B44" s="70" t="s">
         <v>97</v>
@@ -6055,7 +6063,7 @@
       <c r="AB44" s="70"/>
       <c r="AC44" s="70"/>
     </row>
-    <row r="45" spans="1:29">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45" s="60"/>
       <c r="B45" s="70" t="s">
         <v>97</v>
@@ -6084,7 +6092,7 @@
       </c>
       <c r="K45" s="70"/>
       <c r="L45" s="70"/>
-      <c r="M45" s="148"/>
+      <c r="M45" s="94"/>
       <c r="N45" s="70" t="s">
         <v>100</v>
       </c>
@@ -6118,7 +6126,7 @@
       <c r="AB45" s="70"/>
       <c r="AC45" s="70"/>
     </row>
-    <row r="46" spans="1:29">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A46" s="60"/>
       <c r="B46" s="70" t="s">
         <v>97</v>
@@ -6147,7 +6155,7 @@
       </c>
       <c r="K46" s="70"/>
       <c r="L46" s="70"/>
-      <c r="M46" s="147"/>
+      <c r="M46" s="93"/>
       <c r="N46" s="70" t="s">
         <v>100</v>
       </c>
@@ -6181,7 +6189,7 @@
       <c r="AB46" s="70"/>
       <c r="AC46" s="70"/>
     </row>
-    <row r="47" spans="1:29">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A47" s="60"/>
       <c r="B47" s="70" t="s">
         <v>97</v>
@@ -6248,7 +6256,7 @@
       <c r="AB47" s="70"/>
       <c r="AC47" s="70"/>
     </row>
-    <row r="48" spans="1:29">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A48" s="60"/>
       <c r="B48" s="70" t="s">
         <v>97</v>
@@ -6315,7 +6323,7 @@
       <c r="AB48" s="70"/>
       <c r="AC48" s="70"/>
     </row>
-    <row r="49" spans="1:29">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A49" s="60"/>
       <c r="B49" s="70" t="s">
         <v>97</v>
@@ -6382,7 +6390,7 @@
       <c r="AB49" s="70"/>
       <c r="AC49" s="70"/>
     </row>
-    <row r="50" spans="1:29">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A50" s="60"/>
       <c r="B50" s="70" t="s">
         <v>97</v>
@@ -6453,7 +6461,7 @@
       <c r="AB50" s="70"/>
       <c r="AC50" s="70"/>
     </row>
-    <row r="51" spans="1:29">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A51" s="60"/>
       <c r="B51" s="70" t="s">
         <v>97</v>
@@ -6524,7 +6532,7 @@
       <c r="AB51" s="70"/>
       <c r="AC51" s="70"/>
     </row>
-    <row r="52" spans="1:29">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A52" s="60"/>
       <c r="B52" s="70" t="s">
         <v>97</v>
@@ -6587,7 +6595,7 @@
       <c r="AB52" s="70"/>
       <c r="AC52" s="70"/>
     </row>
-    <row r="53" spans="1:29" ht="48">
+    <row r="53" spans="1:29" ht="48" x14ac:dyDescent="0.2">
       <c r="A53" s="60"/>
       <c r="B53" s="85"/>
       <c r="C53" s="85"/>
@@ -6646,7 +6654,7 @@
       <c r="AB53" s="70"/>
       <c r="AC53" s="70"/>
     </row>
-    <row r="54" spans="1:29" ht="48">
+    <row r="54" spans="1:29" ht="48" x14ac:dyDescent="0.2">
       <c r="A54" s="60"/>
       <c r="B54" s="85"/>
       <c r="C54" s="85"/>
@@ -6705,7 +6713,7 @@
       <c r="AB54" s="70"/>
       <c r="AC54" s="70"/>
     </row>
-    <row r="55" spans="1:29" ht="48">
+    <row r="55" spans="1:29" ht="48" x14ac:dyDescent="0.2">
       <c r="B55" s="85"/>
       <c r="C55" s="85"/>
       <c r="D55" s="85"/>
@@ -6763,7 +6771,7 @@
       <c r="AB55" s="70"/>
       <c r="AC55" s="70"/>
     </row>
-    <row r="56" spans="1:29">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B56" s="70" t="s">
         <v>97</v>
       </c>
@@ -6800,7 +6808,9 @@
         <v>143</v>
       </c>
       <c r="O56" s="66"/>
-      <c r="P56" s="67"/>
+      <c r="P56" s="67" t="s">
+        <v>161</v>
+      </c>
       <c r="Q56" s="91" t="s">
         <v>99</v>
       </c>
@@ -6833,7 +6843,7 @@
       <c r="AB56" s="70"/>
       <c r="AC56" s="70"/>
     </row>
-    <row r="57" spans="1:29" ht="48">
+    <row r="57" spans="1:29" ht="48" x14ac:dyDescent="0.2">
       <c r="B57" s="85"/>
       <c r="C57" s="85"/>
       <c r="D57" s="85"/>
@@ -6883,7 +6893,7 @@
       <c r="AB57" s="70"/>
       <c r="AC57" s="70"/>
     </row>
-    <row r="58" spans="1:29" ht="42.75" customHeight="1">
+    <row r="58" spans="1:29" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="70" t="s">
         <v>97</v>
       </c>
@@ -6914,27 +6924,27 @@
       </c>
       <c r="L58" s="70"/>
       <c r="M58" s="70"/>
-      <c r="N58" s="129" t="s">
+      <c r="N58" s="131" t="s">
         <v>147</v>
       </c>
-      <c r="O58" s="132"/>
-      <c r="P58" s="132"/>
-      <c r="Q58" s="141" t="s">
-        <v>99</v>
-      </c>
-      <c r="R58" s="144" t="s">
-        <v>98</v>
-      </c>
-      <c r="S58" s="141" t="s">
-        <v>99</v>
-      </c>
-      <c r="T58" s="144" t="s">
+      <c r="O58" s="137"/>
+      <c r="P58" s="137"/>
+      <c r="Q58" s="146" t="s">
+        <v>99</v>
+      </c>
+      <c r="R58" s="134" t="s">
+        <v>98</v>
+      </c>
+      <c r="S58" s="146" t="s">
+        <v>99</v>
+      </c>
+      <c r="T58" s="134" t="s">
         <v>146</v>
       </c>
-      <c r="U58" s="144" t="s">
+      <c r="U58" s="134" t="s">
         <v>146</v>
       </c>
-      <c r="V58" s="129"/>
+      <c r="V58" s="131"/>
       <c r="W58" s="70" t="s">
         <v>157</v>
       </c>
@@ -6945,11 +6955,11 @@
         <v>5</v>
       </c>
       <c r="Z58" s="70"/>
-      <c r="AA58" s="129"/>
-      <c r="AB58" s="129"/>
-      <c r="AC58" s="129"/>
-    </row>
-    <row r="59" spans="1:29" ht="37.5" customHeight="1">
+      <c r="AA58" s="131"/>
+      <c r="AB58" s="131"/>
+      <c r="AC58" s="131"/>
+    </row>
+    <row r="59" spans="1:29" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="70" t="s">
         <v>97</v>
       </c>
@@ -6980,15 +6990,15 @@
       </c>
       <c r="L59" s="70"/>
       <c r="M59" s="70"/>
-      <c r="N59" s="130"/>
-      <c r="O59" s="133"/>
-      <c r="P59" s="133"/>
-      <c r="Q59" s="142"/>
-      <c r="R59" s="145"/>
-      <c r="S59" s="142"/>
-      <c r="T59" s="145"/>
-      <c r="U59" s="145"/>
-      <c r="V59" s="130"/>
+      <c r="N59" s="132"/>
+      <c r="O59" s="138"/>
+      <c r="P59" s="138"/>
+      <c r="Q59" s="147"/>
+      <c r="R59" s="135"/>
+      <c r="S59" s="147"/>
+      <c r="T59" s="135"/>
+      <c r="U59" s="135"/>
+      <c r="V59" s="132"/>
       <c r="W59" s="70" t="s">
         <v>157</v>
       </c>
@@ -6999,11 +7009,11 @@
         <v>5</v>
       </c>
       <c r="Z59" s="70"/>
-      <c r="AA59" s="130"/>
-      <c r="AB59" s="130"/>
-      <c r="AC59" s="130"/>
-    </row>
-    <row r="60" spans="1:29" ht="37.5" customHeight="1">
+      <c r="AA59" s="132"/>
+      <c r="AB59" s="132"/>
+      <c r="AC59" s="132"/>
+    </row>
+    <row r="60" spans="1:29" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="70" t="s">
         <v>97</v>
       </c>
@@ -7034,15 +7044,15 @@
       </c>
       <c r="L60" s="70"/>
       <c r="M60" s="70"/>
-      <c r="N60" s="131"/>
-      <c r="O60" s="134"/>
-      <c r="P60" s="134"/>
-      <c r="Q60" s="143"/>
-      <c r="R60" s="146"/>
-      <c r="S60" s="143"/>
-      <c r="T60" s="146"/>
-      <c r="U60" s="146"/>
-      <c r="V60" s="131"/>
+      <c r="N60" s="133"/>
+      <c r="O60" s="139"/>
+      <c r="P60" s="139"/>
+      <c r="Q60" s="148"/>
+      <c r="R60" s="136"/>
+      <c r="S60" s="148"/>
+      <c r="T60" s="136"/>
+      <c r="U60" s="136"/>
+      <c r="V60" s="133"/>
       <c r="W60" s="70" t="s">
         <v>157</v>
       </c>
@@ -7053,11 +7063,11 @@
         <v>1</v>
       </c>
       <c r="Z60" s="70"/>
-      <c r="AA60" s="131"/>
-      <c r="AB60" s="131"/>
-      <c r="AC60" s="131"/>
-    </row>
-    <row r="61" spans="1:29">
+      <c r="AA60" s="133"/>
+      <c r="AB60" s="133"/>
+      <c r="AC60" s="133"/>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B61" s="85"/>
       <c r="C61" s="85"/>
       <c r="D61" s="85"/>
@@ -7094,11 +7104,11 @@
       <c r="S61" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="T61" s="73" t="s">
-        <v>148</v>
-      </c>
-      <c r="U61" s="73" t="s">
-        <v>148</v>
+      <c r="T61" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="U61" s="71" t="s">
+        <v>160</v>
       </c>
       <c r="V61" s="92"/>
       <c r="W61" s="70" t="s">
@@ -7115,7 +7125,7 @@
       <c r="AB61" s="92"/>
       <c r="AC61" s="70"/>
     </row>
-    <row r="62" spans="1:29">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B62" s="85"/>
       <c r="C62" s="85"/>
       <c r="D62" s="85"/>
@@ -7173,7 +7183,7 @@
       <c r="AB62" s="92"/>
       <c r="AC62" s="70"/>
     </row>
-    <row r="63" spans="1:29">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B63" s="85"/>
       <c r="C63" s="85"/>
       <c r="D63" s="85"/>
@@ -7227,7 +7237,7 @@
       <c r="AB63" s="92"/>
       <c r="AC63" s="70"/>
     </row>
-    <row r="64" spans="1:29">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B64" s="60"/>
       <c r="C64" s="60"/>
       <c r="D64" s="61"/>
@@ -7257,7 +7267,7 @@
       <c r="AB64" s="60"/>
       <c r="AC64" s="65"/>
     </row>
-    <row r="65" spans="2:29">
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B65" s="60"/>
       <c r="C65" s="60"/>
       <c r="D65" s="61"/>
@@ -7287,7 +7297,7 @@
       <c r="AB65" s="60"/>
       <c r="AC65" s="65"/>
     </row>
-    <row r="66" spans="2:29">
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B66" s="60"/>
       <c r="C66" s="60"/>
       <c r="D66" s="61"/>
@@ -7317,7 +7327,7 @@
       <c r="AB66" s="60"/>
       <c r="AC66" s="65"/>
     </row>
-    <row r="67" spans="2:29">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B67" s="60"/>
       <c r="C67" s="60"/>
       <c r="D67" s="61"/>
@@ -7347,7 +7357,7 @@
       <c r="AB67" s="60"/>
       <c r="AC67" s="65"/>
     </row>
-    <row r="68" spans="2:29">
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B68" s="60"/>
       <c r="C68" s="60"/>
       <c r="D68" s="61"/>
@@ -7377,7 +7387,7 @@
       <c r="AB68" s="60"/>
       <c r="AC68" s="65"/>
     </row>
-    <row r="69" spans="2:29">
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B69" s="60"/>
       <c r="C69" s="60"/>
       <c r="D69" s="61"/>
@@ -7399,7 +7409,7 @@
       <c r="T69" s="64"/>
       <c r="U69" s="60"/>
     </row>
-    <row r="70" spans="2:29">
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B70" s="60"/>
       <c r="C70" s="60"/>
       <c r="D70" s="61"/>
@@ -7421,7 +7431,7 @@
       <c r="T70" s="64"/>
       <c r="U70" s="60"/>
     </row>
-    <row r="71" spans="2:29">
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B71" s="60"/>
       <c r="C71" s="60"/>
       <c r="D71" s="61"/>
@@ -7443,7 +7453,7 @@
       <c r="T71" s="64"/>
       <c r="U71" s="60"/>
     </row>
-    <row r="72" spans="2:29">
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B72" s="60"/>
       <c r="C72" s="60"/>
       <c r="D72" s="61"/>
@@ -7465,7 +7475,7 @@
       <c r="T72" s="64"/>
       <c r="U72" s="60"/>
     </row>
-    <row r="73" spans="2:29">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B73" s="60"/>
       <c r="C73" s="60"/>
       <c r="D73" s="61"/>
@@ -7487,7 +7497,7 @@
       <c r="T73" s="64"/>
       <c r="U73" s="60"/>
     </row>
-    <row r="74" spans="2:29">
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B74" s="60"/>
       <c r="C74" s="60"/>
       <c r="D74" s="61"/>
@@ -7509,7 +7519,7 @@
       <c r="T74" s="64"/>
       <c r="U74" s="60"/>
     </row>
-    <row r="75" spans="2:29">
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B75" s="60"/>
       <c r="C75" s="60"/>
       <c r="D75" s="61"/>
@@ -7531,7 +7541,7 @@
       <c r="T75" s="64"/>
       <c r="U75" s="60"/>
     </row>
-    <row r="76" spans="2:29">
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B76" s="60"/>
       <c r="C76" s="60"/>
       <c r="D76" s="61"/>
@@ -7553,7 +7563,7 @@
       <c r="T76" s="64"/>
       <c r="U76" s="60"/>
     </row>
-    <row r="77" spans="2:29">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B77" s="60"/>
       <c r="C77" s="60"/>
       <c r="D77" s="61"/>
@@ -7575,7 +7585,7 @@
       <c r="T77" s="64"/>
       <c r="U77" s="60"/>
     </row>
-    <row r="78" spans="2:29">
+    <row r="78" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B78" s="60"/>
       <c r="C78" s="60"/>
       <c r="D78" s="61"/>
@@ -7597,7 +7607,7 @@
       <c r="T78" s="64"/>
       <c r="U78" s="60"/>
     </row>
-    <row r="79" spans="2:29">
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="60"/>
       <c r="C79" s="60"/>
       <c r="D79" s="61"/>
@@ -7619,7 +7629,7 @@
       <c r="T79" s="64"/>
       <c r="U79" s="60"/>
     </row>
-    <row r="80" spans="2:29">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B80" s="60"/>
       <c r="C80" s="60"/>
       <c r="D80" s="61"/>
@@ -7641,7 +7651,7 @@
       <c r="T80" s="64"/>
       <c r="U80" s="60"/>
     </row>
-    <row r="81" spans="2:21">
+    <row r="81" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B81" s="60"/>
       <c r="C81" s="60"/>
       <c r="D81" s="61"/>
@@ -7663,7 +7673,7 @@
       <c r="T81" s="64"/>
       <c r="U81" s="60"/>
     </row>
-    <row r="82" spans="2:21">
+    <row r="82" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B82" s="60"/>
       <c r="C82" s="60"/>
       <c r="D82" s="61"/>
@@ -7685,7 +7695,7 @@
       <c r="T82" s="64"/>
       <c r="U82" s="60"/>
     </row>
-    <row r="83" spans="2:21">
+    <row r="83" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B83" s="60"/>
       <c r="C83" s="60"/>
       <c r="D83" s="61"/>
@@ -7707,7 +7717,7 @@
       <c r="T83" s="64"/>
       <c r="U83" s="60"/>
     </row>
-    <row r="84" spans="2:21">
+    <row r="84" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B84" s="60"/>
       <c r="C84" s="60"/>
       <c r="D84" s="61"/>
@@ -7729,7 +7739,7 @@
       <c r="T84" s="64"/>
       <c r="U84" s="60"/>
     </row>
-    <row r="85" spans="2:21">
+    <row r="85" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B85" s="60"/>
       <c r="C85" s="60"/>
       <c r="D85" s="61"/>
@@ -7751,7 +7761,7 @@
       <c r="T85" s="64"/>
       <c r="U85" s="60"/>
     </row>
-    <row r="86" spans="2:21">
+    <row r="86" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B86" s="60"/>
       <c r="C86" s="60"/>
       <c r="D86" s="61"/>
@@ -7773,7 +7783,7 @@
       <c r="T86" s="64"/>
       <c r="U86" s="60"/>
     </row>
-    <row r="87" spans="2:21">
+    <row r="87" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B87" s="60"/>
       <c r="C87" s="60"/>
       <c r="D87" s="61"/>
@@ -7795,7 +7805,7 @@
       <c r="T87" s="64"/>
       <c r="U87" s="60"/>
     </row>
-    <row r="88" spans="2:21">
+    <row r="88" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B88" s="60"/>
       <c r="C88" s="60"/>
       <c r="D88" s="61"/>
@@ -7817,7 +7827,7 @@
       <c r="T88" s="64"/>
       <c r="U88" s="60"/>
     </row>
-    <row r="89" spans="2:21">
+    <row r="89" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B89" s="60"/>
       <c r="C89" s="60"/>
       <c r="D89" s="61"/>
@@ -7839,7 +7849,7 @@
       <c r="T89" s="64"/>
       <c r="U89" s="60"/>
     </row>
-    <row r="90" spans="2:21">
+    <row r="90" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B90" s="60"/>
       <c r="C90" s="60"/>
       <c r="D90" s="61"/>
@@ -7861,7 +7871,7 @@
       <c r="T90" s="64"/>
       <c r="U90" s="60"/>
     </row>
-    <row r="91" spans="2:21">
+    <row r="91" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B91" s="60"/>
       <c r="C91" s="60"/>
       <c r="D91" s="61"/>
@@ -7883,7 +7893,7 @@
       <c r="T91" s="64"/>
       <c r="U91" s="60"/>
     </row>
-    <row r="92" spans="2:21">
+    <row r="92" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B92" s="60"/>
       <c r="C92" s="60"/>
       <c r="D92" s="61"/>
@@ -7905,7 +7915,7 @@
       <c r="T92" s="64"/>
       <c r="U92" s="60"/>
     </row>
-    <row r="93" spans="2:21">
+    <row r="93" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B93" s="60"/>
       <c r="C93" s="60"/>
       <c r="D93" s="61"/>
@@ -7927,7 +7937,7 @@
       <c r="T93" s="64"/>
       <c r="U93" s="60"/>
     </row>
-    <row r="94" spans="2:21">
+    <row r="94" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B94" s="60"/>
       <c r="C94" s="60"/>
       <c r="D94" s="61"/>
@@ -7949,7 +7959,7 @@
       <c r="T94" s="64"/>
       <c r="U94" s="60"/>
     </row>
-    <row r="95" spans="2:21">
+    <row r="95" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B95" s="60"/>
       <c r="C95" s="60"/>
       <c r="D95" s="61"/>
@@ -7971,7 +7981,7 @@
       <c r="T95" s="64"/>
       <c r="U95" s="60"/>
     </row>
-    <row r="96" spans="2:21">
+    <row r="96" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B96" s="60"/>
       <c r="C96" s="60"/>
       <c r="D96" s="61"/>
@@ -7993,7 +8003,7 @@
       <c r="T96" s="64"/>
       <c r="U96" s="60"/>
     </row>
-    <row r="97" spans="2:21">
+    <row r="97" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B97" s="60"/>
       <c r="C97" s="60"/>
       <c r="D97" s="61"/>
@@ -8015,7 +8025,7 @@
       <c r="T97" s="64"/>
       <c r="U97" s="60"/>
     </row>
-    <row r="98" spans="2:21">
+    <row r="98" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B98" s="60"/>
       <c r="C98" s="60"/>
       <c r="D98" s="61"/>
@@ -8037,7 +8047,7 @@
       <c r="T98" s="64"/>
       <c r="U98" s="60"/>
     </row>
-    <row r="99" spans="2:21">
+    <row r="99" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B99" s="60"/>
       <c r="C99" s="60"/>
       <c r="D99" s="61"/>
@@ -8059,7 +8069,7 @@
       <c r="T99" s="64"/>
       <c r="U99" s="60"/>
     </row>
-    <row r="100" spans="2:21">
+    <row r="100" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B100" s="60"/>
       <c r="C100" s="60"/>
       <c r="D100" s="61"/>
@@ -8081,7 +8091,7 @@
       <c r="T100" s="64"/>
       <c r="U100" s="60"/>
     </row>
-    <row r="101" spans="2:21">
+    <row r="101" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B101" s="60"/>
       <c r="C101" s="60"/>
       <c r="D101" s="61"/>
@@ -8103,7 +8113,7 @@
       <c r="T101" s="64"/>
       <c r="U101" s="60"/>
     </row>
-    <row r="102" spans="2:21">
+    <row r="102" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B102" s="60"/>
       <c r="C102" s="60"/>
       <c r="D102" s="61"/>
@@ -8125,7 +8135,7 @@
       <c r="T102" s="64"/>
       <c r="U102" s="60"/>
     </row>
-    <row r="103" spans="2:21">
+    <row r="103" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B103" s="60"/>
       <c r="C103" s="60"/>
       <c r="D103" s="61"/>
@@ -8147,7 +8157,7 @@
       <c r="T103" s="64"/>
       <c r="U103" s="60"/>
     </row>
-    <row r="104" spans="2:21">
+    <row r="104" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B104" s="60"/>
       <c r="C104" s="60"/>
       <c r="D104" s="61"/>
@@ -8171,11 +8181,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="AC58:AC60"/>
-    <mergeCell ref="U58:U60"/>
-    <mergeCell ref="V58:V60"/>
-    <mergeCell ref="N58:N60"/>
-    <mergeCell ref="O58:O60"/>
     <mergeCell ref="Q2:AB2"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
@@ -8186,6 +8191,11 @@
     <mergeCell ref="T58:T60"/>
     <mergeCell ref="AA58:AA60"/>
     <mergeCell ref="AB58:AB60"/>
+    <mergeCell ref="AC58:AC60"/>
+    <mergeCell ref="U58:U60"/>
+    <mergeCell ref="V58:V60"/>
+    <mergeCell ref="N58:N60"/>
+    <mergeCell ref="O58:O60"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -8195,7 +8205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8203,7 +8213,7 @@
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.85546875" style="16" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" style="16" customWidth="1"/>
@@ -8211,7 +8221,7 @@
     <col min="4" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25">
+    <row r="1" spans="2:25" x14ac:dyDescent="0.2">
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
       <c r="G1" s="23"/>
@@ -8231,7 +8241,7 @@
       <c r="X1" s="18"/>
       <c r="Y1" s="18"/>
     </row>
-    <row r="2" spans="2:25">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.2">
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
       <c r="G2" s="22"/>
@@ -8251,7 +8261,7 @@
       <c r="X2" s="18"/>
       <c r="Y2" s="18"/>
     </row>
-    <row r="3" spans="2:25" ht="18">
+    <row r="3" spans="2:25" ht="18" x14ac:dyDescent="0.25">
       <c r="C3" s="20" t="s">
         <v>50</v>
       </c>
@@ -8276,7 +8286,7 @@
       <c r="X3" s="18"/>
       <c r="Y3" s="18"/>
     </row>
-    <row r="4" spans="2:25">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B4" s="31"/>
       <c r="C4" s="31"/>
       <c r="E4" s="18"/>
@@ -8298,7 +8308,7 @@
       <c r="X4" s="18"/>
       <c r="Y4" s="18"/>
     </row>
-    <row r="6" spans="2:25">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B6" s="37" t="s">
         <v>51</v>
       </c>
@@ -8306,7 +8316,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:25" ht="25.5">
+    <row r="7" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B7" s="32" t="s">
         <v>48</v>
       </c>
@@ -8314,7 +8324,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="2:25" ht="25.5">
+    <row r="8" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B8" s="32" t="s">
         <v>46</v>
       </c>
@@ -8322,7 +8332,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:25" ht="25.5">
+    <row r="9" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B9" s="32" t="s">
         <v>44</v>
       </c>
@@ -8330,7 +8340,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:25" ht="25.5">
+    <row r="10" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B10" s="32" t="s">
         <v>42</v>
       </c>
@@ -8338,7 +8348,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:25" ht="25.5">
+    <row r="11" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
         <v>40</v>
       </c>
@@ -8346,7 +8356,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:25" ht="25.5">
+    <row r="12" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B12" s="32" t="s">
         <v>38</v>
       </c>
@@ -8354,7 +8364,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="2:25" ht="25.5">
+    <row r="13" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B13" s="32" t="s">
         <v>36</v>
       </c>
@@ -8362,7 +8372,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:25" ht="25.5">
+    <row r="14" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B14" s="32" t="s">
         <v>34</v>
       </c>
@@ -8370,7 +8380,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:25" ht="25.5">
+    <row r="15" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B15" s="32" t="s">
         <v>32</v>
       </c>
@@ -8378,7 +8388,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:25" ht="25.5">
+    <row r="16" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B16" s="32" t="s">
         <v>30</v>
       </c>
@@ -8386,7 +8396,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="25.5">
+    <row r="17" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B17" s="32" t="s">
         <v>28</v>
       </c>
@@ -8394,7 +8404,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="25.5">
+    <row r="18" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B18" s="32" t="s">
         <v>26</v>
       </c>
@@ -8402,7 +8412,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="25.5">
+    <row r="19" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B19" s="33" t="s">
         <v>24</v>
       </c>
@@ -8410,7 +8420,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="25.5">
+    <row r="20" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B20" s="32" t="s">
         <v>22</v>
       </c>
@@ -8418,7 +8428,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="25.5">
+    <row r="21" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B21" s="32" t="s">
         <v>20</v>
       </c>
@@ -8426,7 +8436,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="25.5">
+    <row r="22" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B22" s="32" t="s">
         <v>18</v>
       </c>
@@ -8434,7 +8444,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="25.5">
+    <row r="23" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B23" s="35" t="s">
         <v>16</v>
       </c>
@@ -8453,15 +8463,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C760C40915C1B4C80AF9710AA8AB9B3" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f63d70067374de11fdd4aac465032ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -8510,25 +8521,39 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5002F17-DDF0-456D-BB3D-9ED669B817C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8543,25 +8568,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>